--- a/data/CBS/NFIB/old/Earnings Trends.xlsx
+++ b/data/CBS/NFIB/old/Earnings Trends.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="18195" windowHeight="7995"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="475">
   <si>
     <t>Month/Year</t>
   </si>
@@ -52,6 +57,9 @@
     <t>1986/7/1</t>
   </si>
   <si>
+    <t>-11</t>
+  </si>
+  <si>
     <t>1986/8/1</t>
   </si>
   <si>
@@ -61,132 +69,129 @@
     <t>1986/9/1</t>
   </si>
   <si>
+    <t>-13</t>
+  </si>
+  <si>
+    <t>1986/10/1</t>
+  </si>
+  <si>
+    <t>-8</t>
+  </si>
+  <si>
+    <t>1986/11/1</t>
+  </si>
+  <si>
+    <t>1986/12/1</t>
+  </si>
+  <si>
+    <t>-5</t>
+  </si>
+  <si>
+    <t>1987/1/1</t>
+  </si>
+  <si>
+    <t>1987/2/1</t>
+  </si>
+  <si>
+    <t>1987/3/1</t>
+  </si>
+  <si>
+    <t>1987/4/1</t>
+  </si>
+  <si>
+    <t>1987/5/1</t>
+  </si>
+  <si>
+    <t>-9</t>
+  </si>
+  <si>
+    <t>1987/6/1</t>
+  </si>
+  <si>
+    <t>1987/7/1</t>
+  </si>
+  <si>
+    <t>1987/8/1</t>
+  </si>
+  <si>
+    <t>1987/9/1</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>1987/10/1</t>
+  </si>
+  <si>
+    <t>1987/11/1</t>
+  </si>
+  <si>
+    <t>1987/12/1</t>
+  </si>
+  <si>
+    <t>1988/1/1</t>
+  </si>
+  <si>
+    <t>-6</t>
+  </si>
+  <si>
+    <t>1988/2/1</t>
+  </si>
+  <si>
+    <t>1988/3/1</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>1988/4/1</t>
+  </si>
+  <si>
+    <t>1988/5/1</t>
+  </si>
+  <si>
+    <t>1988/6/1</t>
+  </si>
+  <si>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>1988/7/1</t>
+  </si>
+  <si>
+    <t>1988/8/1</t>
+  </si>
+  <si>
+    <t>1988/9/1</t>
+  </si>
+  <si>
+    <t>1988/10/1</t>
+  </si>
+  <si>
+    <t>1988/11/1</t>
+  </si>
+  <si>
+    <t>1988/12/1</t>
+  </si>
+  <si>
+    <t>1989/1/1</t>
+  </si>
+  <si>
+    <t>1989/2/1</t>
+  </si>
+  <si>
+    <t>1989/3/1</t>
+  </si>
+  <si>
+    <t>1989/4/1</t>
+  </si>
+  <si>
+    <t>1989/5/1</t>
+  </si>
+  <si>
     <t>-14</t>
   </si>
   <si>
-    <t>1986/10/1</t>
-  </si>
-  <si>
-    <t>-8</t>
-  </si>
-  <si>
-    <t>1986/11/1</t>
-  </si>
-  <si>
-    <t>1986/12/1</t>
-  </si>
-  <si>
-    <t>-5</t>
-  </si>
-  <si>
-    <t>1987/1/1</t>
-  </si>
-  <si>
-    <t>1987/2/1</t>
-  </si>
-  <si>
-    <t>-11</t>
-  </si>
-  <si>
-    <t>1987/3/1</t>
-  </si>
-  <si>
-    <t>1987/4/1</t>
-  </si>
-  <si>
-    <t>1987/5/1</t>
-  </si>
-  <si>
-    <t>-9</t>
-  </si>
-  <si>
-    <t>1987/6/1</t>
-  </si>
-  <si>
-    <t>1987/7/1</t>
-  </si>
-  <si>
-    <t>1987/8/1</t>
-  </si>
-  <si>
-    <t>1987/9/1</t>
-  </si>
-  <si>
-    <t>-2</t>
-  </si>
-  <si>
-    <t>1987/10/1</t>
-  </si>
-  <si>
-    <t>1987/11/1</t>
-  </si>
-  <si>
-    <t>1987/12/1</t>
-  </si>
-  <si>
-    <t>1988/1/1</t>
-  </si>
-  <si>
-    <t>-6</t>
-  </si>
-  <si>
-    <t>1988/2/1</t>
-  </si>
-  <si>
-    <t>1988/3/1</t>
-  </si>
-  <si>
-    <t>-3</t>
-  </si>
-  <si>
-    <t>1988/4/1</t>
-  </si>
-  <si>
-    <t>1988/5/1</t>
-  </si>
-  <si>
-    <t>1988/6/1</t>
-  </si>
-  <si>
-    <t>-4</t>
-  </si>
-  <si>
-    <t>1988/7/1</t>
-  </si>
-  <si>
-    <t>1988/8/1</t>
-  </si>
-  <si>
-    <t>1988/9/1</t>
-  </si>
-  <si>
-    <t>1988/10/1</t>
-  </si>
-  <si>
-    <t>1988/11/1</t>
-  </si>
-  <si>
-    <t>1988/12/1</t>
-  </si>
-  <si>
-    <t>1989/1/1</t>
-  </si>
-  <si>
-    <t>1989/2/1</t>
-  </si>
-  <si>
-    <t>1989/3/1</t>
-  </si>
-  <si>
-    <t>1989/4/1</t>
-  </si>
-  <si>
-    <t>-13</t>
-  </si>
-  <si>
-    <t>1989/5/1</t>
-  </si>
-  <si>
     <t>1989/6/1</t>
   </si>
   <si>
@@ -238,117 +243,117 @@
     <t>1990/9/1</t>
   </si>
   <si>
+    <t>-19</t>
+  </si>
+  <si>
+    <t>1990/10/1</t>
+  </si>
+  <si>
+    <t>-24</t>
+  </si>
+  <si>
+    <t>1990/11/1</t>
+  </si>
+  <si>
+    <t>-22</t>
+  </si>
+  <si>
+    <t>1990/12/1</t>
+  </si>
+  <si>
+    <t>-26</t>
+  </si>
+  <si>
+    <t>1991/1/1</t>
+  </si>
+  <si>
+    <t>1991/2/1</t>
+  </si>
+  <si>
+    <t>-21</t>
+  </si>
+  <si>
+    <t>1991/3/1</t>
+  </si>
+  <si>
+    <t>-23</t>
+  </si>
+  <si>
+    <t>1991/4/1</t>
+  </si>
+  <si>
+    <t>1991/5/1</t>
+  </si>
+  <si>
+    <t>-28</t>
+  </si>
+  <si>
+    <t>1991/6/1</t>
+  </si>
+  <si>
+    <t>-30</t>
+  </si>
+  <si>
+    <t>1991/7/1</t>
+  </si>
+  <si>
+    <t>1991/8/1</t>
+  </si>
+  <si>
+    <t>1991/9/1</t>
+  </si>
+  <si>
+    <t>-17</t>
+  </si>
+  <si>
+    <t>1991/10/1</t>
+  </si>
+  <si>
+    <t>-27</t>
+  </si>
+  <si>
+    <t>1991/11/1</t>
+  </si>
+  <si>
+    <t>1991/12/1</t>
+  </si>
+  <si>
+    <t>1992/1/1</t>
+  </si>
+  <si>
+    <t>1992/2/1</t>
+  </si>
+  <si>
+    <t>1992/3/1</t>
+  </si>
+  <si>
     <t>-20</t>
   </si>
   <si>
-    <t>1990/10/1</t>
-  </si>
-  <si>
-    <t>-24</t>
-  </si>
-  <si>
-    <t>1990/11/1</t>
-  </si>
-  <si>
-    <t>-22</t>
-  </si>
-  <si>
-    <t>1990/12/1</t>
-  </si>
-  <si>
-    <t>-26</t>
-  </si>
-  <si>
-    <t>1991/1/1</t>
-  </si>
-  <si>
-    <t>1991/2/1</t>
-  </si>
-  <si>
-    <t>-21</t>
-  </si>
-  <si>
-    <t>1991/3/1</t>
-  </si>
-  <si>
-    <t>-23</t>
-  </si>
-  <si>
-    <t>1991/4/1</t>
-  </si>
-  <si>
-    <t>1991/5/1</t>
-  </si>
-  <si>
-    <t>-28</t>
-  </si>
-  <si>
-    <t>1991/6/1</t>
-  </si>
-  <si>
-    <t>-30</t>
-  </si>
-  <si>
-    <t>1991/7/1</t>
-  </si>
-  <si>
-    <t>1991/8/1</t>
-  </si>
-  <si>
-    <t>1991/9/1</t>
+    <t>1992/4/1</t>
+  </si>
+  <si>
+    <t>1992/5/1</t>
+  </si>
+  <si>
+    <t>1992/6/1</t>
+  </si>
+  <si>
+    <t>1992/7/1</t>
+  </si>
+  <si>
+    <t>1992/8/1</t>
+  </si>
+  <si>
+    <t>1992/9/1</t>
+  </si>
+  <si>
+    <t>1992/10/1</t>
   </si>
   <si>
     <t>-18</t>
   </si>
   <si>
-    <t>1991/10/1</t>
-  </si>
-  <si>
-    <t>-27</t>
-  </si>
-  <si>
-    <t>1991/11/1</t>
-  </si>
-  <si>
-    <t>1991/12/1</t>
-  </si>
-  <si>
-    <t>1992/1/1</t>
-  </si>
-  <si>
-    <t>1992/2/1</t>
-  </si>
-  <si>
-    <t>1992/3/1</t>
-  </si>
-  <si>
-    <t>1992/4/1</t>
-  </si>
-  <si>
-    <t>-19</t>
-  </si>
-  <si>
-    <t>1992/5/1</t>
-  </si>
-  <si>
-    <t>-17</t>
-  </si>
-  <si>
-    <t>1992/6/1</t>
-  </si>
-  <si>
-    <t>1992/7/1</t>
-  </si>
-  <si>
-    <t>1992/8/1</t>
-  </si>
-  <si>
-    <t>1992/9/1</t>
-  </si>
-  <si>
-    <t>1992/10/1</t>
-  </si>
-  <si>
     <t>1992/11/1</t>
   </si>
   <si>
@@ -931,7 +936,7 @@
     <t>2008/7/1</t>
   </si>
   <si>
-    <t>-36</t>
+    <t>-37</t>
   </si>
   <si>
     <t>2008/8/1</t>
@@ -940,12 +945,12 @@
     <t>2008/9/1</t>
   </si>
   <si>
+    <t>-35</t>
+  </si>
+  <si>
     <t>2008/10/1</t>
   </si>
   <si>
-    <t>-37</t>
-  </si>
-  <si>
     <t>2008/11/1</t>
   </si>
   <si>
@@ -1036,9 +1041,6 @@
     <t>2010/9/1</t>
   </si>
   <si>
-    <t>-34</t>
-  </si>
-  <si>
     <t>2010/10/1</t>
   </si>
   <si>
@@ -1312,9 +1314,6 @@
     <t>2018/4/1</t>
   </si>
   <si>
-    <t>-1</t>
-  </si>
-  <si>
     <t>2018/5/1</t>
   </si>
   <si>
@@ -1327,51 +1326,51 @@
     <t>2018/7/1</t>
   </si>
   <si>
+    <t>2018/8/1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2018/9/1</t>
+  </si>
+  <si>
+    <t>2018/10/1</t>
+  </si>
+  <si>
+    <t>2018/11/1</t>
+  </si>
+  <si>
+    <t>2018/12/1</t>
+  </si>
+  <si>
+    <t>2019/1/1</t>
+  </si>
+  <si>
+    <t>2019/2/1</t>
+  </si>
+  <si>
+    <t>2019/3/1</t>
+  </si>
+  <si>
+    <t>2019/4/1</t>
+  </si>
+  <si>
+    <t>2019/5/1</t>
+  </si>
+  <si>
+    <t>2019/6/1</t>
+  </si>
+  <si>
+    <t>2019/7/1</t>
+  </si>
+  <si>
+    <t>2019/8/1</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>2018/8/1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2018/9/1</t>
-  </si>
-  <si>
-    <t>2018/10/1</t>
-  </si>
-  <si>
-    <t>2018/11/1</t>
-  </si>
-  <si>
-    <t>2018/12/1</t>
-  </si>
-  <si>
-    <t>2019/1/1</t>
-  </si>
-  <si>
-    <t>2019/2/1</t>
-  </si>
-  <si>
-    <t>2019/3/1</t>
-  </si>
-  <si>
-    <t>2019/4/1</t>
-  </si>
-  <si>
-    <t>2019/5/1</t>
-  </si>
-  <si>
-    <t>2019/6/1</t>
-  </si>
-  <si>
-    <t>2019/7/1</t>
-  </si>
-  <si>
-    <t>2019/8/1</t>
-  </si>
-  <si>
     <t>2019/9/1</t>
   </si>
   <si>
@@ -1402,9 +1401,6 @@
     <t>2020/6/1</t>
   </si>
   <si>
-    <t>-35</t>
-  </si>
-  <si>
     <t>2020/7/1</t>
   </si>
   <si>
@@ -1421,30 +1417,63 @@
   </si>
   <si>
     <t>2020/12/1</t>
+  </si>
+  <si>
+    <t>2021/1/1</t>
+  </si>
+  <si>
+    <t>2021/2/1</t>
+  </si>
+  <si>
+    <t>2021/3/1</t>
+  </si>
+  <si>
+    <t>2021/4/1</t>
+  </si>
+  <si>
+    <t>2021/5/1</t>
+  </si>
+  <si>
+    <t>2021/6/1</t>
+  </si>
+  <si>
+    <t>2021/7/1</t>
+  </si>
+  <si>
+    <t>2021/8/1</t>
+  </si>
+  <si>
+    <t>2021/10/1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <scheme val="minor"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1466,30 +1495,333 @@
       <diagonal/>
     </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf xfid="0" fontId="1" applyFont="1" fillId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+  </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B430"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane state="frozen" ySplit="1" topLeftCell="A2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="1" width="14.290714285714287"/>
-    <col min="2" max="2" customWidth="1" width="14.290714285714287"/>
+    <col min="1" max="2" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1497,7 +1829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1505,7 +1837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1513,7 +1845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1521,7 +1853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1529,7 +1861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1537,7 +1869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1545,71 +1877,71 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1617,7 +1949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1625,7 +1957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1633,7 +1965,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -1641,23 +1973,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -1665,7 +1997,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1673,7 +2005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1681,7 +2013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1689,7 +2021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1697,7 +2029,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -1705,7 +2037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -1713,7 +2045,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -1721,7 +2053,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -1729,7 +2061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -1737,39 +2069,39 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -1777,7 +2109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -1785,15 +2117,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -1801,7 +2133,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -1809,39 +2141,39 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>54</v>
       </c>
       <c r="B41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
+      <c r="B42" t="s">
         <v>56</v>
       </c>
-      <c r="B42" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -1849,15 +2181,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>61</v>
       </c>
@@ -1865,15 +2197,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>62</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -1881,23 +2213,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>65</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>66</v>
       </c>
@@ -1905,7 +2237,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>67</v>
       </c>
@@ -1913,7 +2245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>68</v>
       </c>
@@ -1921,7 +2253,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>69</v>
       </c>
@@ -1929,15 +2261,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>70</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>71</v>
       </c>
@@ -1945,7 +2277,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -1953,7 +2285,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>75</v>
       </c>
@@ -1961,7 +2293,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>77</v>
       </c>
@@ -1969,7 +2301,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -1977,7 +2309,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>81</v>
       </c>
@@ -1985,7 +2317,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>82</v>
       </c>
@@ -1993,7 +2325,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>84</v>
       </c>
@@ -2001,7 +2333,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>86</v>
       </c>
@@ -2009,7 +2341,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>87</v>
       </c>
@@ -2017,7 +2349,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>89</v>
       </c>
@@ -2025,15 +2357,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>91</v>
       </c>
       <c r="B68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>92</v>
       </c>
@@ -2041,7 +2373,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>93</v>
       </c>
@@ -2049,7 +2381,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>95</v>
       </c>
@@ -2057,7 +2389,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>97</v>
       </c>
@@ -2065,7 +2397,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>98</v>
       </c>
@@ -2073,7 +2405,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>99</v>
       </c>
@@ -2081,7 +2413,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>100</v>
       </c>
@@ -2089,79 +2421,79 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>101</v>
       </c>
       <c r="B76" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>103</v>
+      </c>
+      <c r="B77" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>102</v>
-      </c>
-      <c r="B77" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="78">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>104</v>
       </c>
       <c r="B78" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
+      <c r="B79" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>106</v>
       </c>
-      <c r="B79" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
+      <c r="B80" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>107</v>
-      </c>
-      <c r="B80" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>108</v>
       </c>
       <c r="B81" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B82" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>109</v>
+      </c>
+      <c r="B83" t="s">
         <v>110</v>
       </c>
-      <c r="B83" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="84">
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>111</v>
       </c>
       <c r="B84" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>112</v>
       </c>
@@ -2169,7 +2501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>113</v>
       </c>
@@ -2177,23 +2509,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>114</v>
       </c>
       <c r="B87" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>115</v>
       </c>
       <c r="B88" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>116</v>
       </c>
@@ -2201,7 +2533,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>117</v>
       </c>
@@ -2209,7 +2541,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>118</v>
       </c>
@@ -2217,15 +2549,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>119</v>
       </c>
       <c r="B92" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>120</v>
       </c>
@@ -2233,15 +2565,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>121</v>
       </c>
       <c r="B94" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>122</v>
       </c>
@@ -2249,7 +2581,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>124</v>
       </c>
@@ -2257,23 +2589,23 @@
         <v>72</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>125</v>
       </c>
       <c r="B97" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>126</v>
       </c>
       <c r="B98" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>127</v>
       </c>
@@ -2281,7 +2613,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>128</v>
       </c>
@@ -2289,71 +2621,71 @@
         <v>72</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>129</v>
       </c>
       <c r="B101" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="102">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>130</v>
       </c>
       <c r="B102" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="103">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>131</v>
       </c>
       <c r="B103" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="104">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>132</v>
       </c>
       <c r="B104" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="105">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>133</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="106">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>134</v>
       </c>
       <c r="B106" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="107">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>135</v>
       </c>
       <c r="B107" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="108">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>136</v>
       </c>
       <c r="B108" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="109">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>137</v>
       </c>
@@ -2361,7 +2693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>138</v>
       </c>
@@ -2369,15 +2701,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>139</v>
       </c>
       <c r="B111" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="112">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>140</v>
       </c>
@@ -2385,55 +2717,55 @@
         <v>72</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>141</v>
       </c>
       <c r="B113" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="114">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>142</v>
       </c>
       <c r="B114" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="115">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>143</v>
       </c>
       <c r="B115" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="116">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>144</v>
       </c>
       <c r="B116" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="117">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>145</v>
       </c>
       <c r="B117" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="118">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>146</v>
       </c>
       <c r="B118" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="119">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>147</v>
       </c>
@@ -2441,15 +2773,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>148</v>
       </c>
       <c r="B120" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="121">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>149</v>
       </c>
@@ -2457,7 +2789,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>150</v>
       </c>
@@ -2465,71 +2797,71 @@
         <v>72</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>151</v>
       </c>
       <c r="B123" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="124">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>152</v>
       </c>
       <c r="B124" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="125">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>153</v>
       </c>
       <c r="B125" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="126">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>154</v>
       </c>
       <c r="B126" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="127">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>155</v>
       </c>
       <c r="B127" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="128">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>156</v>
       </c>
       <c r="B128" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="129">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>157</v>
       </c>
       <c r="B129" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="130">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>158</v>
       </c>
       <c r="B130" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="131">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>159</v>
       </c>
@@ -2537,47 +2869,47 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>160</v>
       </c>
       <c r="B132" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="133">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>161</v>
       </c>
       <c r="B133" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="134">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>162</v>
       </c>
       <c r="B134" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="135">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>163</v>
       </c>
       <c r="B135" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="136">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>164</v>
       </c>
       <c r="B136" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="137">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>165</v>
       </c>
@@ -2585,15 +2917,15 @@
         <v>72</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>166</v>
       </c>
       <c r="B138" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="139">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>167</v>
       </c>
@@ -2601,31 +2933,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>168</v>
       </c>
       <c r="B140" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="141">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>169</v>
       </c>
       <c r="B141" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="142">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>170</v>
       </c>
       <c r="B142" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="143">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>171</v>
       </c>
@@ -2633,7 +2965,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>172</v>
       </c>
@@ -2641,7 +2973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>173</v>
       </c>
@@ -2649,7 +2981,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>174</v>
       </c>
@@ -2657,7 +2989,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>175</v>
       </c>
@@ -2665,7 +2997,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>176</v>
       </c>
@@ -2673,15 +3005,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>177</v>
       </c>
       <c r="B149" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="150">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>178</v>
       </c>
@@ -2689,7 +3021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>179</v>
       </c>
@@ -2697,15 +3029,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>180</v>
       </c>
       <c r="B152" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="153">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>181</v>
       </c>
@@ -2713,15 +3045,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>182</v>
       </c>
       <c r="B154" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>183</v>
       </c>
@@ -2729,7 +3061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>184</v>
       </c>
@@ -2737,55 +3069,55 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>185</v>
       </c>
       <c r="B157" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="158">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>186</v>
       </c>
       <c r="B158" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="159">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>187</v>
       </c>
       <c r="B159" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="160">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>188</v>
       </c>
       <c r="B160" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="161">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>189</v>
       </c>
       <c r="B161" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="162">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>190</v>
       </c>
       <c r="B162" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="163">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>191</v>
       </c>
@@ -2793,15 +3125,15 @@
         <v>72</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>192</v>
       </c>
       <c r="B164" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>193</v>
       </c>
@@ -2809,23 +3141,23 @@
         <v>27</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>194</v>
       </c>
       <c r="B166" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="167">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>195</v>
       </c>
       <c r="B167" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="168">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>196</v>
       </c>
@@ -2833,7 +3165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>197</v>
       </c>
@@ -2841,39 +3173,39 @@
         <v>27</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>198</v>
       </c>
       <c r="B170" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="171">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>199</v>
       </c>
       <c r="B171" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="172">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>200</v>
       </c>
       <c r="B172" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="173">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>201</v>
       </c>
       <c r="B173" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="174">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>202</v>
       </c>
@@ -2881,7 +3213,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>203</v>
       </c>
@@ -2889,55 +3221,55 @@
         <v>72</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>204</v>
       </c>
       <c r="B176" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>205</v>
       </c>
       <c r="B177" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="178">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>206</v>
       </c>
       <c r="B178" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="179">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>207</v>
       </c>
       <c r="B179" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="180">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>208</v>
       </c>
       <c r="B180" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="181">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>209</v>
       </c>
       <c r="B181" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="182">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>210</v>
       </c>
@@ -2945,7 +3277,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>211</v>
       </c>
@@ -2953,7 +3285,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>212</v>
       </c>
@@ -2961,15 +3293,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>213</v>
       </c>
       <c r="B185" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="186">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>214</v>
       </c>
@@ -2977,7 +3309,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>215</v>
       </c>
@@ -2985,31 +3317,31 @@
         <v>96</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>216</v>
       </c>
       <c r="B188" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="189">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>217</v>
       </c>
       <c r="B189" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="190">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>218</v>
       </c>
       <c r="B190" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="191">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>219</v>
       </c>
@@ -3017,15 +3349,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>220</v>
       </c>
       <c r="B192" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="193">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>221</v>
       </c>
@@ -3033,7 +3365,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>222</v>
       </c>
@@ -3041,7 +3373,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>223</v>
       </c>
@@ -3049,7 +3381,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>224</v>
       </c>
@@ -3057,7 +3389,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>225</v>
       </c>
@@ -3065,7 +3397,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>226</v>
       </c>
@@ -3073,31 +3405,31 @@
         <v>76</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>227</v>
       </c>
       <c r="B199" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="200">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>228</v>
       </c>
       <c r="B200" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="201">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>229</v>
       </c>
       <c r="B201" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="202">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>230</v>
       </c>
@@ -3105,23 +3437,23 @@
         <v>74</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>231</v>
       </c>
       <c r="B203" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="204">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>232</v>
       </c>
       <c r="B204" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="205">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>233</v>
       </c>
@@ -3129,7 +3461,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>234</v>
       </c>
@@ -3137,7 +3469,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>235</v>
       </c>
@@ -3145,7 +3477,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>237</v>
       </c>
@@ -3153,7 +3485,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>238</v>
       </c>
@@ -3161,7 +3493,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>239</v>
       </c>
@@ -3169,7 +3501,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>240</v>
       </c>
@@ -3177,23 +3509,23 @@
         <v>83</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>241</v>
       </c>
       <c r="B212" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="213">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>242</v>
       </c>
       <c r="B213" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="214">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>243</v>
       </c>
@@ -3201,7 +3533,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>244</v>
       </c>
@@ -3209,7 +3541,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>245</v>
       </c>
@@ -3217,7 +3549,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>246</v>
       </c>
@@ -3225,31 +3557,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>247</v>
       </c>
       <c r="B218" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="219">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>248</v>
       </c>
       <c r="B219" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="220">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>249</v>
       </c>
       <c r="B220" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="221">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>250</v>
       </c>
@@ -3257,47 +3589,47 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>251</v>
       </c>
       <c r="B222" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="223">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>252</v>
       </c>
       <c r="B223" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="224">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>253</v>
       </c>
       <c r="B224" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="225">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>254</v>
       </c>
       <c r="B225" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="226">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>255</v>
       </c>
       <c r="B226" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="227">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>256</v>
       </c>
@@ -3305,7 +3637,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>257</v>
       </c>
@@ -3313,7 +3645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>258</v>
       </c>
@@ -3321,7 +3653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>259</v>
       </c>
@@ -3329,7 +3661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>260</v>
       </c>
@@ -3337,7 +3669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>261</v>
       </c>
@@ -3345,7 +3677,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>262</v>
       </c>
@@ -3353,47 +3685,47 @@
         <v>72</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>263</v>
       </c>
       <c r="B234" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="235">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>264</v>
       </c>
       <c r="B235" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="236">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>265</v>
       </c>
       <c r="B236" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="237">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>266</v>
       </c>
       <c r="B237" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="238">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>267</v>
       </c>
       <c r="B238" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="239">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>268</v>
       </c>
@@ -3401,7 +3733,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>269</v>
       </c>
@@ -3409,47 +3741,47 @@
         <v>72</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>270</v>
       </c>
       <c r="B241" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="242">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>271</v>
       </c>
       <c r="B242" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="243">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>272</v>
       </c>
       <c r="B243" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="244">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>273</v>
       </c>
       <c r="B244" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="245">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>274</v>
       </c>
       <c r="B245" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="246">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>275</v>
       </c>
@@ -3457,39 +3789,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>276</v>
       </c>
       <c r="B247" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="248">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>277</v>
       </c>
       <c r="B248" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="249">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>278</v>
       </c>
       <c r="B249" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="250">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>279</v>
       </c>
       <c r="B250" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="251">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>280</v>
       </c>
@@ -3497,79 +3829,79 @@
         <v>72</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>281</v>
       </c>
       <c r="B252" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="253">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>282</v>
       </c>
       <c r="B253" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="254">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>283</v>
       </c>
       <c r="B254" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="255">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>284</v>
       </c>
       <c r="B255" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="256">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>285</v>
       </c>
       <c r="B256" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="257">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>286</v>
       </c>
       <c r="B257" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="258">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>287</v>
       </c>
       <c r="B258" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="259">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>288</v>
       </c>
       <c r="B259" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="260">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>289</v>
       </c>
       <c r="B260" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="261">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>290</v>
       </c>
@@ -3577,23 +3909,23 @@
         <v>78</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>291</v>
       </c>
       <c r="B262" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="263">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>292</v>
       </c>
       <c r="B263" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="264">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>293</v>
       </c>
@@ -3601,15 +3933,15 @@
         <v>123</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>294</v>
       </c>
       <c r="B265" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="266">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>295</v>
       </c>
@@ -3617,7 +3949,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>296</v>
       </c>
@@ -3625,7 +3957,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>297</v>
       </c>
@@ -3633,7 +3965,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>299</v>
       </c>
@@ -3641,7 +3973,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>301</v>
       </c>
@@ -3649,7 +3981,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>302</v>
       </c>
@@ -3657,7 +3989,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>304</v>
       </c>
@@ -3665,7 +3997,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>306</v>
       </c>
@@ -3673,23 +4005,23 @@
         <v>90</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>307</v>
       </c>
       <c r="B274" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>309</v>
+      </c>
+      <c r="B275" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" t="s">
-        <v>308</v>
-      </c>
-      <c r="B275" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="276">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>310</v>
       </c>
@@ -3697,7 +4029,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>312</v>
       </c>
@@ -3705,7 +4037,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>314</v>
       </c>
@@ -3713,7 +4045,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>316</v>
       </c>
@@ -3721,7 +4053,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>318</v>
       </c>
@@ -3729,7 +4061,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>319</v>
       </c>
@@ -3737,7 +4069,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>321</v>
       </c>
@@ -3745,7 +4077,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>322</v>
       </c>
@@ -3753,15 +4085,15 @@
         <v>323</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>324</v>
       </c>
       <c r="B284" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="285">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>325</v>
       </c>
@@ -3769,15 +4101,15 @@
         <v>326</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>327</v>
       </c>
       <c r="B286" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="287">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>328</v>
       </c>
@@ -3785,7 +4117,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>329</v>
       </c>
@@ -3793,7 +4125,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>330</v>
       </c>
@@ -3801,7 +4133,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>331</v>
       </c>
@@ -3809,7 +4141,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>332</v>
       </c>
@@ -3817,7 +4149,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>333</v>
       </c>
@@ -3825,7 +4157,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>334</v>
       </c>
@@ -3833,7 +4165,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>335</v>
       </c>
@@ -3841,7 +4173,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>336</v>
       </c>
@@ -3849,15 +4181,15 @@
         <v>298</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>337</v>
       </c>
       <c r="B296" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="297">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>338</v>
       </c>
@@ -3865,1000 +4197,1073 @@
         <v>90</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>339</v>
       </c>
       <c r="B298" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
         <v>340</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="s">
-        <v>341</v>
       </c>
       <c r="B299" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B300" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B301" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B302" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B303" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B304" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B305" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B306" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B307" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
+        <v>349</v>
+      </c>
+      <c r="B308" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
         <v>350</v>
-      </c>
-      <c r="B308" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="s">
-        <v>351</v>
       </c>
       <c r="B309" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
+        <v>351</v>
+      </c>
+      <c r="B310" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
         <v>352</v>
-      </c>
-      <c r="B310" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="s">
-        <v>353</v>
       </c>
       <c r="B311" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B312" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B313" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B314" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
+        <v>356</v>
+      </c>
+      <c r="B315" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
         <v>357</v>
-      </c>
-      <c r="B315" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="s">
-        <v>358</v>
       </c>
       <c r="B316" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
+        <v>358</v>
+      </c>
+      <c r="B317" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
         <v>359</v>
       </c>
-      <c r="B317" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="s">
+      <c r="B318" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
         <v>360</v>
-      </c>
-      <c r="B318" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="s">
-        <v>361</v>
       </c>
       <c r="B319" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
+        <v>361</v>
+      </c>
+      <c r="B320" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
         <v>362</v>
-      </c>
-      <c r="B320" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="s">
-        <v>363</v>
       </c>
       <c r="B321" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
+        <v>363</v>
+      </c>
+      <c r="B322" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
         <v>364</v>
-      </c>
-      <c r="B322" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="s">
-        <v>365</v>
       </c>
       <c r="B323" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B324" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B325" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B326" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B327" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B328" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B329" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B330" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B331" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
+        <v>373</v>
+      </c>
+      <c r="B332" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
         <v>374</v>
-      </c>
-      <c r="B332" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="s">
-        <v>375</v>
       </c>
       <c r="B333" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
+        <v>375</v>
+      </c>
+      <c r="B334" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
         <v>376</v>
-      </c>
-      <c r="B334" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="s">
-        <v>377</v>
       </c>
       <c r="B335" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B336" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B337" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B338" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B339" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B340" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B341" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
+        <v>383</v>
+      </c>
+      <c r="B342" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
         <v>384</v>
       </c>
-      <c r="B342" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="s">
+      <c r="B343" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
         <v>385</v>
       </c>
-      <c r="B343" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="s">
+      <c r="B344" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
         <v>386</v>
       </c>
-      <c r="B344" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="s">
+      <c r="B345" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
         <v>387</v>
-      </c>
-      <c r="B345" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="s">
-        <v>388</v>
       </c>
       <c r="B346" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B347" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
+        <v>389</v>
+      </c>
+      <c r="B348" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
         <v>390</v>
       </c>
-      <c r="B348" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="s">
+      <c r="B349" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
         <v>391</v>
       </c>
-      <c r="B349" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="s">
+      <c r="B350" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
         <v>392</v>
       </c>
-      <c r="B350" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="s">
+      <c r="B351" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
         <v>393</v>
-      </c>
-      <c r="B351" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="s">
-        <v>394</v>
       </c>
       <c r="B352" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="353">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
+        <v>394</v>
+      </c>
+      <c r="B353" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
         <v>395</v>
-      </c>
-      <c r="B353" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="s">
-        <v>396</v>
       </c>
       <c r="B354" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="355">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
+        <v>396</v>
+      </c>
+      <c r="B355" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
         <v>397</v>
       </c>
-      <c r="B355" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="s">
+      <c r="B356" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
         <v>398</v>
       </c>
-      <c r="B356" t="s">
+      <c r="B357" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>399</v>
+      </c>
+      <c r="B358" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>400</v>
+      </c>
+      <c r="B359" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>401</v>
+      </c>
+      <c r="B360" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>402</v>
+      </c>
+      <c r="B361" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="357">
-      <c r="A357" t="s">
-        <v>399</v>
-      </c>
-      <c r="B357" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="s">
-        <v>400</v>
-      </c>
-      <c r="B358" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="s">
-        <v>401</v>
-      </c>
-      <c r="B359" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="s">
-        <v>402</v>
-      </c>
-      <c r="B360" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="s">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
         <v>403</v>
       </c>
-      <c r="B361" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="s">
+      <c r="B362" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
         <v>404</v>
-      </c>
-      <c r="B362" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="s">
-        <v>405</v>
       </c>
       <c r="B363" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="364">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B364" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
+        <v>406</v>
+      </c>
+      <c r="B365" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
         <v>407</v>
       </c>
-      <c r="B365" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="s">
+      <c r="B366" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
         <v>408</v>
       </c>
-      <c r="B366" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="s">
+      <c r="B367" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
         <v>409</v>
       </c>
-      <c r="B367" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="s">
+      <c r="B368" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
         <v>410</v>
-      </c>
-      <c r="B368" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="s">
-        <v>411</v>
       </c>
       <c r="B369" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="370">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
+        <v>411</v>
+      </c>
+      <c r="B370" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
         <v>412</v>
-      </c>
-      <c r="B370" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="s">
-        <v>413</v>
       </c>
       <c r="B371" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="372">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
+        <v>413</v>
+      </c>
+      <c r="B372" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
         <v>414</v>
       </c>
-      <c r="B372" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="s">
+      <c r="B373" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
         <v>415</v>
-      </c>
-      <c r="B373" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="s">
-        <v>416</v>
       </c>
       <c r="B374" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="375">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
+        <v>416</v>
+      </c>
+      <c r="B375" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
         <v>417</v>
-      </c>
-      <c r="B375" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="s">
-        <v>418</v>
       </c>
       <c r="B376" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="377">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B377" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="378">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B378" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="379">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B379" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="380">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
+        <v>421</v>
+      </c>
+      <c r="B380" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
         <v>422</v>
-      </c>
-      <c r="B380" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="s">
-        <v>423</v>
       </c>
       <c r="B381" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="382">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
+        <v>423</v>
+      </c>
+      <c r="B382" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
         <v>424</v>
       </c>
-      <c r="B382" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="s">
+      <c r="B383" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
         <v>425</v>
-      </c>
-      <c r="B383" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="s">
-        <v>426</v>
       </c>
       <c r="B384" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="385">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
+        <v>426</v>
+      </c>
+      <c r="B385" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
         <v>427</v>
       </c>
-      <c r="B385" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="s">
+      <c r="B386" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
         <v>428</v>
-      </c>
-      <c r="B386" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="s">
-        <v>429</v>
       </c>
       <c r="B387" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="388">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B388" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="389">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
+        <v>430</v>
+      </c>
+      <c r="B389" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
         <v>431</v>
       </c>
-      <c r="B389" t="s">
+      <c r="B390" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="390">
-      <c r="A390" t="s">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
         <v>433</v>
       </c>
-      <c r="B390" t="s">
+      <c r="B391" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="s">
+      <c r="B392" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
         <v>435</v>
       </c>
-      <c r="B391" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="s">
+      <c r="B393" t="s">
         <v>436</v>
       </c>
-      <c r="B392" t="s">
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
         <v>437</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="s">
-        <v>438</v>
-      </c>
-      <c r="B393" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="s">
-        <v>440</v>
       </c>
       <c r="B394" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="395">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B395" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="396">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B396" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="397">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B397" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="398">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B398" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="399">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B399" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="400">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B400" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="401">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B401" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="402">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B402" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="403">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B403" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="404">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
+        <v>447</v>
+      </c>
+      <c r="B404" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>448</v>
+      </c>
+      <c r="B405" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
         <v>450</v>
       </c>
-      <c r="B404" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="s">
+      <c r="B406" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
         <v>451</v>
       </c>
-      <c r="B405" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="s">
+      <c r="B407" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
         <v>452</v>
       </c>
-      <c r="B406" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="s">
+      <c r="B408" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
         <v>453</v>
       </c>
-      <c r="B407" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="s">
+      <c r="B409" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
         <v>454</v>
-      </c>
-      <c r="B408" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="s">
-        <v>455</v>
-      </c>
-      <c r="B409" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="s">
-        <v>456</v>
       </c>
       <c r="B410" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="411">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B411" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="412">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B412" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="413">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B413" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="414">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B414" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="415">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
+        <v>459</v>
+      </c>
+      <c r="B415" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>460</v>
+      </c>
+      <c r="B416" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
         <v>461</v>
-      </c>
-      <c r="B415" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="s">
-        <v>463</v>
-      </c>
-      <c r="B416" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="s">
-        <v>464</v>
       </c>
       <c r="B417" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="418">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B418" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="419">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B419" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="420">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B420" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="421">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
+        <v>465</v>
+      </c>
+      <c r="B421" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>466</v>
+      </c>
+      <c r="B422" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>467</v>
+      </c>
+      <c r="B423" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
         <v>468</v>
       </c>
-      <c r="B421" t="s">
-        <v>15</v>
+      <c r="B424" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>469</v>
+      </c>
+      <c r="B425" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>470</v>
+      </c>
+      <c r="B426" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>471</v>
+      </c>
+      <c r="B427" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>472</v>
+      </c>
+      <c r="B428" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>473</v>
+      </c>
+      <c r="B429" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>474</v>
+      </c>
+      <c r="B430" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>